--- a/2- AsistenciaLab/visitas_laboratorio.xlsx
+++ b/2- AsistenciaLab/visitas_laboratorio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I451"/>
+  <dimension ref="A1:I453"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20726,9 +20726,99 @@
           <t>12:08:15</t>
         </is>
       </c>
-      <c r="I451" t="inlineStr">
-        <is>
-          <t>120</t>
+      <c r="I451" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>17579474-3</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>Felipe</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>Flores</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>Consultas</t>
+        </is>
+      </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>2025-07-07</t>
+        </is>
+      </c>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>18:00:58</t>
+        </is>
+      </c>
+      <c r="I452" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>17579474-3</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>Felipe</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>Flores</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>Ingeniería Civil en Informática</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>NO TIENE UNA ASIGNATURA ASOCIADA AL LABORATORIO</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>Consultas</t>
+        </is>
+      </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>2025-07-07</t>
+        </is>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>18:02:56</t>
+        </is>
+      </c>
+      <c r="I453" t="inlineStr">
+        <is>
+          <t>56</t>
         </is>
       </c>
     </row>
